--- a/test/data/test-modbus-uart-sheet.xlsx
+++ b/test/data/test-modbus-uart-sheet.xlsx
@@ -62,7 +62,7 @@
     <t>a1</t>
   </si>
   <si>
-    <t>FLOAT</t>
+    <t>FLOAT32</t>
   </si>
   <si>
     <t>DCBA</t>
@@ -71,7 +71,7 @@
     <t>a2</t>
   </si>
   <si>
-    <t>INT</t>
+    <t>INT32</t>
   </si>
   <si>
     <t>a3</t>
@@ -1296,7 +1296,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:J16"/>
+      <selection activeCell="H3" sqref="H3:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/test/data/test-modbus-uart-sheet.xlsx
+++ b/test/data/test-modbus-uart-sheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
   <si>
     <t>tag</t>
   </si>
@@ -59,7 +59,10 @@
     <t>weight</t>
   </si>
   <si>
-    <t>a1</t>
+    <t>属性1</t>
+  </si>
+  <si>
+    <t>01J:001</t>
   </si>
   <si>
     <t>FLOAT32</t>
@@ -68,49 +71,49 @@
     <t>DCBA</t>
   </si>
   <si>
-    <t>a2</t>
+    <t>属性2</t>
   </si>
   <si>
     <t>INT32</t>
   </si>
   <si>
-    <t>a3</t>
-  </si>
-  <si>
-    <t>a4</t>
-  </si>
-  <si>
-    <t>a5</t>
-  </si>
-  <si>
-    <t>a6</t>
-  </si>
-  <si>
-    <t>a7</t>
-  </si>
-  <si>
-    <t>a8</t>
-  </si>
-  <si>
-    <t>a9</t>
-  </si>
-  <si>
-    <t>a10</t>
-  </si>
-  <si>
-    <t>a11</t>
-  </si>
-  <si>
-    <t>a12</t>
-  </si>
-  <si>
-    <t>a13</t>
-  </si>
-  <si>
-    <t>a14</t>
-  </si>
-  <si>
-    <t>a15</t>
+    <t>属性3</t>
+  </si>
+  <si>
+    <t>属性4</t>
+  </si>
+  <si>
+    <t>属性5</t>
+  </si>
+  <si>
+    <t>属性6</t>
+  </si>
+  <si>
+    <t>属性7</t>
+  </si>
+  <si>
+    <t>属性8</t>
+  </si>
+  <si>
+    <t>属性9</t>
+  </si>
+  <si>
+    <t>属性10</t>
+  </si>
+  <si>
+    <t>属性11</t>
+  </si>
+  <si>
+    <t>属性12</t>
+  </si>
+  <si>
+    <t>属性13</t>
+  </si>
+  <si>
+    <t>属性14</t>
+  </si>
+  <si>
+    <t>属性15</t>
   </si>
 </sst>
 </file>
@@ -134,7 +137,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -284,7 +287,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,7 +296,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,7 +640,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,16 +664,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -673,89 +682,89 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -763,6 +772,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1295,18 +1307,20 @@
   <sheetPr/>
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H8"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.11666666666667" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="2" max="2" width="8.375" customWidth="1"/>
     <col min="3" max="3" width="9.025" customWidth="1"/>
     <col min="4" max="4" width="11.0166666666667" customWidth="1"/>
     <col min="5" max="5" width="10.2833333333333" customWidth="1"/>
-    <col min="6" max="6" width="13.575" customWidth="1"/>
+    <col min="6" max="7" width="9.25" customWidth="1"/>
+    <col min="8" max="8" width="8.375" customWidth="1"/>
+    <col min="9" max="9" width="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1345,8 +1359,8 @@
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C2" s="2">
         <v>3</v>
@@ -1364,21 +1378,21 @@
         <v>2</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="3">
+        <v>13</v>
+      </c>
+      <c r="J2" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
@@ -1396,21 +1410,21 @@
         <v>2</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="3">
+        <v>13</v>
+      </c>
+      <c r="J3" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
@@ -1428,21 +1442,21 @@
         <v>2</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="3">
+        <v>13</v>
+      </c>
+      <c r="J4" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
@@ -1460,21 +1474,21 @@
         <v>2</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="3">
+        <v>13</v>
+      </c>
+      <c r="J5" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -1492,21 +1506,21 @@
         <v>2</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="3">
+        <v>13</v>
+      </c>
+      <c r="J6" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
@@ -1524,21 +1538,21 @@
         <v>2</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="3">
+        <v>13</v>
+      </c>
+      <c r="J7" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
@@ -1556,21 +1570,21 @@
         <v>2</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="3">
+        <v>13</v>
+      </c>
+      <c r="J8" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
@@ -1588,21 +1602,21 @@
         <v>2</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="3">
+        <v>13</v>
+      </c>
+      <c r="J9" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C10" s="2">
         <v>3</v>
@@ -1620,21 +1634,21 @@
         <v>2</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="3">
+        <v>13</v>
+      </c>
+      <c r="J10" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C11" s="2">
         <v>3</v>
@@ -1652,21 +1666,21 @@
         <v>2</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="3">
+        <v>13</v>
+      </c>
+      <c r="J11" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C12" s="2">
         <v>3</v>
@@ -1684,21 +1698,21 @@
         <v>2</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="3">
+        <v>13</v>
+      </c>
+      <c r="J12" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C13" s="2">
         <v>3</v>
@@ -1716,21 +1730,21 @@
         <v>2</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="3">
+        <v>13</v>
+      </c>
+      <c r="J13" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C14" s="2">
         <v>3</v>
@@ -1748,21 +1762,21 @@
         <v>2</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="3">
+        <v>13</v>
+      </c>
+      <c r="J14" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C15" s="2">
         <v>3</v>
@@ -1780,21 +1794,21 @@
         <v>2</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="3">
+        <v>13</v>
+      </c>
+      <c r="J15" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C16" s="2">
         <v>3</v>
@@ -1812,12 +1826,12 @@
         <v>2</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="3">
+        <v>13</v>
+      </c>
+      <c r="J16" s="4">
         <v>1</v>
       </c>
     </row>
